--- a/input.xlsx
+++ b/input.xlsx
@@ -68,7 +68,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -442,148 +448,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="A1:C9"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="17.01" customWidth="1" style="2" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="1">
+    <row r="1" ht="13.5" customHeight="1" s="3">
       <c r="A1" t="inlineStr">
-        <is>
-          <t>Espesor unitario</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>0.4425832075491792</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="13.8" customHeight="1" s="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Metros lineales</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>149.4079898784798</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="13.8" customHeight="1" s="1">
-      <c r="A3" t="inlineStr">
         <is>
           <t>Bajadas</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B1" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>unidades</t>
+          <t>Pesos</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cortes</t>
-        </is>
+    <row r="2" ht="13.5" customHeight="1" s="3">
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n">
+        <v>11.55673164121039</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="3">
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n">
+        <v>7.511875566786754</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>unidades</t>
-        </is>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="3">
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
+        <v>10.40105847708935</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Volumen unitario</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>42185.30615240374</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>cm3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="13.8" customHeight="1" s="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Peso unitario</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10.40105847708936</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.8" customHeight="1" s="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Gramaje unitario</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.001070893197412904</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>g/cm2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Densidad unitaria</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2465564298505558</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>g/cm3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Desperdicio</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>148</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+    <row r="5" ht="13.5" customHeight="1" s="3">
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="3">
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="3">
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="3">
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="3">
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,44 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3345" yWindow="1110" windowWidth="15375" windowHeight="7875" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,36 +42,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -444,81 +409,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="17.01" customWidth="1" style="2" min="1" max="1"/>
+    <col width="17" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="3">
+    <row r="1" ht="13.5" customHeight="1" s="1">
       <c r="A1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Medidas</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Pesos</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>Bajadas</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="E1" t="n">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Pesos</t>
-        </is>
-      </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="3">
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n">
-        <v>11.55673164121039</v>
+    <row r="2" ht="13.5" customHeight="1" s="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.65313951486369</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="3">
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n">
-        <v>7.511875566786754</v>
+    <row r="3" ht="13.5" customHeight="1" s="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.224540684661395</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="3">
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n">
-        <v>10.40105847708935</v>
+    <row r="4" ht="13.5" customHeight="1" s="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.38782556337732</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="3">
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="3">
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="3">
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="3">
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="3">
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-    </row>
+    <row r="5" ht="13.5" customHeight="1" s="1"/>
+    <row r="6" ht="13.5" customHeight="1" s="1"/>
+    <row r="7" ht="13.5" customHeight="1" s="1"/>
+    <row r="8" ht="13.5" customHeight="1" s="1"/>
+    <row r="9" ht="13.5" customHeight="1" s="1"/>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>